--- a/kostraleveranse2021/Kostra 16 - tunnell u 4m.xlsx
+++ b/kostraleveranse2021/Kostra 16 - tunnell u 4m.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-12-21</t>
+          <t>2021-12-22</t>
         </is>
       </c>
     </row>
